--- a/Medotologia.xlsx
+++ b/Medotologia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDa\Desktop\Projecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E47F3-61F7-4020-AAB9-822EC673B73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA458E-0996-4B34-9DD2-9943A7D6E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="10" r:id="rId1"/>
@@ -2066,190 +2066,190 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,6 +2510,187 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12531</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25064</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEF6422-6ADA-A068-BEA7-57CDB22E9893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7093617" y="589046"/>
+          <a:ext cx="7018421" cy="5251283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739441</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>187993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55283</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>187993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DF3EC1-40BD-FD37-4BC6-8F1452C7199D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7056020" y="6228848"/>
+          <a:ext cx="7086237" cy="5276349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3623</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6548F023-7286-6FAE-BF08-F177A8E39D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="576513"/>
+          <a:ext cx="6320202" cy="5288882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>670278</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>518955</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87AB0E3-DC74-1598-7FAC-ADB01CFEE19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14771206" y="6160303"/>
+          <a:ext cx="6408161" cy="5269697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5265,7 +5446,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5275,8 +5456,8 @@
       <xdr:rowOff>2319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3004236</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10621</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>65923</xdr:rowOff>
     </xdr:to>
@@ -5314,7 +5495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6207,7 +6388,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7318,11 +7499,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="165"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123" t="s">
@@ -7938,19 +8119,19 @@
       <c r="A73" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="161" t="s">
+      <c r="B73" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="162"/>
+      <c r="C73" s="167"/>
     </row>
     <row r="74" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="163" t="s">
+      <c r="B74" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="164"/>
+      <c r="C74" s="169"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="111" t="s">
@@ -7965,64 +8146,64 @@
       <c r="A76" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="165" t="s">
+      <c r="B76" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="166"/>
+      <c r="C76" s="162"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="B77" s="165" t="s">
+      <c r="B77" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="166"/>
+      <c r="C77" s="162"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="165" t="s">
+      <c r="B78" s="161" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="166"/>
+      <c r="C78" s="162"/>
     </row>
     <row r="79" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="165" t="s">
+      <c r="B79" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="166"/>
+      <c r="C79" s="162"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="165" t="s">
+      <c r="B80" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="166"/>
+      <c r="C80" s="162"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="165" t="s">
+      <c r="B81" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="166"/>
+      <c r="C81" s="162"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="165" t="s">
+      <c r="B82" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="166"/>
+      <c r="C82" s="162"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="112"/>
@@ -8042,10 +8223,10 @@
       <c r="A85" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="165" t="s">
+      <c r="B85" s="161" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="166"/>
+      <c r="C85" s="162"/>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="112" t="s">
@@ -8060,19 +8241,19 @@
       <c r="A87" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="165" t="s">
+      <c r="B87" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="166"/>
+      <c r="C87" s="162"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="165" t="s">
+      <c r="B88" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="166"/>
+      <c r="C88" s="162"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="112"/>
@@ -8092,28 +8273,28 @@
       <c r="A91" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="165" t="s">
+      <c r="B91" s="161" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="166"/>
+      <c r="C91" s="162"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="165" t="s">
+      <c r="B92" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="166"/>
+      <c r="C92" s="162"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="165" t="s">
+      <c r="B93" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="166"/>
+      <c r="C93" s="162"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="116"/>
@@ -8122,22 +8303,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8149,7 +8330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -8162,20 +8343,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
@@ -8192,7 +8373,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="174" t="s">
         <v>268</v>
       </c>
       <c r="C4" s="152" t="s">
@@ -8203,7 +8384,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="172"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="153" t="s">
         <v>270</v>
       </c>
@@ -8212,7 +8393,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="172"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="152" t="s">
         <v>266</v>
       </c>
@@ -8221,7 +8402,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="172"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="153" t="s">
         <v>282</v>
       </c>
@@ -8230,7 +8411,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="153" t="s">
         <v>277</v>
       </c>
@@ -8239,17 +8420,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="153"/>
       <c r="D9" s="153"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="173"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="153"/>
       <c r="D10" s="153"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="171" t="s">
         <v>273</v>
       </c>
       <c r="C11" s="154" t="s">
@@ -8260,7 +8441,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="169"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="154" t="s">
         <v>284</v>
       </c>
@@ -8269,7 +8450,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="169"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="154" t="s">
         <v>283</v>
       </c>
@@ -8278,7 +8459,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="177" t="s">
         <v>286</v>
       </c>
       <c r="C14" s="155" t="s">
@@ -8289,7 +8470,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="175"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="155" t="s">
         <v>253</v>
       </c>
@@ -8298,7 +8479,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="175"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="155" t="s">
         <v>291</v>
       </c>
@@ -8307,7 +8488,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="175"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="155" t="s">
         <v>293</v>
       </c>
@@ -8316,7 +8497,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="175"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="155" t="s">
         <v>249</v>
       </c>
@@ -8325,12 +8506,12 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="176"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="180" t="s">
         <v>287</v>
       </c>
       <c r="C20" s="156" t="s">
@@ -8341,7 +8522,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="177"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="156" t="s">
         <v>289</v>
       </c>
@@ -8350,26 +8531,26 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
-      <c r="C22" s="220" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="160" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="177"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="177"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="170" t="s">
         <v>274</v>
       </c>
       <c r="C25" s="157" t="s">
@@ -8380,7 +8561,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="167"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="157" t="s">
         <v>258</v>
       </c>
@@ -8389,7 +8570,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="167"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="157" t="s">
         <v>260</v>
       </c>
@@ -8398,7 +8579,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="167"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="157" t="s">
         <v>262</v>
       </c>
@@ -8407,7 +8588,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="167"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="157"/>
       <c r="D29" s="157"/>
     </row>
@@ -8484,13 +8665,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -8503,48 +8684,48 @@
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
-      <c r="H2" s="190" t="s">
+      <c r="H2" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="191"/>
-      <c r="J2" s="192"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="185" t="s">
         <v>199</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="188" t="s">
+      <c r="I3" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="188" t="s">
+      <c r="J3" s="191" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="180"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="186"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="180"/>
-      <c r="D5" s="183"/>
+      <c r="B5" s="183"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="22" t="s">
         <v>1</v>
       </c>
@@ -8557,8 +8738,8 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="181"/>
-      <c r="D6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="D6" s="187"/>
       <c r="F6" s="7"/>
       <c r="H6" s="131"/>
       <c r="I6" s="131"/>
@@ -8576,7 +8757,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="188" t="s">
         <v>200</v>
       </c>
       <c r="E8" s="22"/>
@@ -8587,7 +8768,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="D9" s="186"/>
+      <c r="D9" s="189"/>
       <c r="F9" s="7"/>
       <c r="H9" s="132"/>
       <c r="I9" s="132"/>
@@ -8595,7 +8776,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="D10" s="186"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="22"/>
       <c r="F10" s="7"/>
       <c r="H10" s="132"/>
@@ -8604,7 +8785,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="D11" s="187"/>
+      <c r="D11" s="190"/>
       <c r="F11" s="7"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -8638,8 +8819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B73" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,6 +9153,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8991,18 +9173,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9320,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9337,13 +9519,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="52"/>
       <c r="G2" t="s">
         <v>0</v>
@@ -9390,14 +9572,14 @@
       <c r="F4" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="195"/>
+      <c r="G4" s="198"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40"/>
       <c r="D5" s="34"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="196"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10783,48 +10965,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="215" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="211"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="201"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="201"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="209"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="207"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="209"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="204"/>
       <c r="I5" s="75"/>
       <c r="J5" s="76"/>
       <c r="K5" s="77"/>
@@ -10881,22 +11063,22 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
       <c r="I11" s="79"/>
       <c r="J11" s="73"/>
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="I12" s="80"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="201"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="206"/>
+      <c r="O12" s="207"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
@@ -10931,9 +11113,9 @@
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="78"/>
       <c r="F16" s="71"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
       <c r="M16" s="78"/>
       <c r="N16" s="70"/>
       <c r="O16" s="71"/>
@@ -11002,14 +11184,14 @@
       <c r="I23" s="80"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="201"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="206"/>
+      <c r="O23" s="207"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="50"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
       <c r="I24" s="83"/>
       <c r="J24" s="84"/>
       <c r="K24" s="85"/>
@@ -11019,8 +11201,8 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="56"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="209"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
       <c r="I25" s="86"/>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -11040,9 +11222,9 @@
       <c r="B27" s="50"/>
       <c r="E27" s="78"/>
       <c r="F27" s="71"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="207"/>
       <c r="M27" s="78"/>
       <c r="N27" s="70"/>
       <c r="O27" s="71"/>
@@ -11089,8 +11271,8 @@
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="50"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="211"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="209"/>
       <c r="I32" s="2"/>
       <c r="M32" s="86"/>
       <c r="N32" s="87"/>
@@ -11098,17 +11280,17 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="213"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="50"/>
       <c r="E34" s="75"/>
       <c r="F34" s="77"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="201"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="207"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="50"/>
@@ -11117,9 +11299,9 @@
       <c r="I35" s="97"/>
       <c r="J35" s="76"/>
       <c r="K35" s="77"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="200"/>
-      <c r="O35" s="201"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="207"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="50"/>
@@ -11184,9 +11366,9 @@
       <c r="I42" s="83"/>
       <c r="J42" s="84"/>
       <c r="K42" s="85"/>
-      <c r="M42" s="199"/>
-      <c r="N42" s="200"/>
-      <c r="O42" s="201"/>
+      <c r="M42" s="205"/>
+      <c r="N42" s="206"/>
+      <c r="O42" s="207"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="55"/>
@@ -11215,18 +11397,18 @@
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="203"/>
-      <c r="K46" s="204"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="214"/>
       <c r="M46" s="89"/>
       <c r="N46" s="90"/>
       <c r="O46" s="91"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="47"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="206"/>
-      <c r="K47" s="207"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="202"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
@@ -11241,15 +11423,15 @@
       <c r="B50" s="47"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="202"/>
-      <c r="J51" s="203"/>
-      <c r="K51" s="204"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="214"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="84"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="206"/>
-      <c r="K52" s="207"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="202"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="84"/>
@@ -11409,6 +11591,16 @@
     <sortCondition ref="B61:B98"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="I52:K52"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="M4:O4"/>
@@ -11422,16 +11614,6 @@
     <mergeCell ref="M42:O42"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11466,38 +11648,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="219"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="219"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -11551,9 +11733,9 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="214"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="216"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="219"/>
       <c r="F8" s="67"/>
       <c r="G8" s="61"/>
       <c r="H8" s="62"/>
@@ -11580,17 +11762,17 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="214"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="216"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="216"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="219"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
       <c r="J13" s="80"/>
       <c r="K13" s="81"/>
       <c r="L13" s="82"/>
@@ -11611,9 +11793,9 @@
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="D15" s="7"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="216"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
       <c r="J15" s="54"/>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>

--- a/Medotologia.xlsx
+++ b/Medotologia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDa\Desktop\Projecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA458E-0996-4B34-9DD2-9943A7D6E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D03A0-CB36-4DA7-B019-45DABC22B586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="292">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>P20</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>P31</t>
   </si>
   <si>
     <t>P32</t>
@@ -805,9 +796,6 @@
     <t>onClick btnCronometro</t>
   </si>
   <si>
-    <t>P22</t>
-  </si>
-  <si>
     <t>onClick btnAtras</t>
   </si>
   <si>
@@ -1040,6 +1028,9 @@
   </si>
   <si>
     <t>Para saber de donde llego el envio de los insumos</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2251,6 +2242,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2545,8 +2541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7093617" y="589046"/>
-          <a:ext cx="7018421" cy="5251283"/>
+          <a:off x="7124531" y="584033"/>
+          <a:ext cx="6997533" cy="5318960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,22 +2642,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>670278</xdr:colOff>
+      <xdr:colOff>888999</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>170355</xdr:rowOff>
+      <xdr:rowOff>158908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>518955</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>9820</xdr:rowOff>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
+        <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87AB0E3-DC74-1598-7FAC-ADB01CFEE19B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E34526-9621-808A-F1E8-4D79FE4E7457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,8 +2673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14771206" y="6160303"/>
-          <a:ext cx="6408161" cy="5269697"/>
+          <a:off x="14985999" y="6254908"/>
+          <a:ext cx="7217834" cy="5386760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5451,22 +5447,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>474097</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2319</xdr:rowOff>
+      <xdr:colOff>122115</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>10621</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65923</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2772019</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>767206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAB23CF-55E8-4765-B7C7-528DAEC51D01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD29FBB-71B5-493A-B720-A7B8C22213BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,8 +5478,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="474097" y="1016110"/>
-          <a:ext cx="3046974" cy="3754335"/>
+          <a:off x="122115" y="1342147"/>
+          <a:ext cx="3150577" cy="3161790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2906347</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A222777F-40D8-4FAE-9182-2E071FF9F25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36635" y="5434135"/>
+          <a:ext cx="3370385" cy="3426170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>194302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3415A687-2BE7-4507-8F48-C1EE4BF35C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109904" y="10793917"/>
+          <a:ext cx="3248269" cy="2824634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78720</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2873244</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>33753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ADEC32-325C-EEE8-385D-31F2AD53D9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78720" y="14162886"/>
+          <a:ext cx="3298326" cy="2700991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7500,102 +7628,102 @@
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="163" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="165"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="127"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="127"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="127"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="127"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="127"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="127"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C12" s="127"/>
     </row>
@@ -7606,39 +7734,39 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="127"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="112" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="127"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="127"/>
     </row>
@@ -7649,39 +7777,39 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="109" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="112" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="113" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="127"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="112" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="113" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="127"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="127"/>
     </row>
@@ -7692,48 +7820,48 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="109" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="126" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="112" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="127"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="113" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>76</v>
       </c>
       <c r="C26" s="127"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" s="127"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="112" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="127"/>
     </row>
@@ -7742,7 +7870,7 @@
         <v>5.5</v>
       </c>
       <c r="B29" s="113" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="127"/>
     </row>
@@ -7751,43 +7879,43 @@
         <v>5.6</v>
       </c>
       <c r="B30" s="113" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" s="127"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="112" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B31" s="113" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" s="127"/>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="112" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" s="113" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C32" s="127"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="113" t="s">
         <v>84</v>
-      </c>
-      <c r="B33" s="113" t="s">
-        <v>87</v>
       </c>
       <c r="C33" s="127"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="113" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" s="113" t="s">
-        <v>89</v>
       </c>
       <c r="C34" s="127"/>
     </row>
@@ -7798,48 +7926,48 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" s="110" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="112" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" s="113" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="127"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="112" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" s="127"/>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="112" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="127"/>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="112" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="127"/>
     </row>
@@ -7850,57 +7978,57 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" s="126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="112" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C43" s="127"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" s="113" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" s="127"/>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C45" s="127"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="112" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B46" s="114" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" s="127"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="112" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" s="114" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="127"/>
     </row>
@@ -7913,37 +8041,37 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="112" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B49" s="113" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="127"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="112" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" s="113" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="127"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="112" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B51" s="113" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" s="127"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="112" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" s="127"/>
     </row>
@@ -7954,73 +8082,73 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="113" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="127"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" s="113" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" s="127"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B56" s="113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C56" s="127"/>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B57" s="113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="127"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C58" s="127"/>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B59" s="115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="127"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B60" s="113" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C60" s="127"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="112" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B61" s="113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C61" s="127"/>
     </row>
@@ -8031,39 +8159,39 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="110" t="s">
-        <v>115</v>
-      </c>
       <c r="C63" s="126" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="112" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" s="113" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C64" s="127"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="112" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B65" s="113" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C65" s="127"/>
     </row>
     <row r="66" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C66" s="128"/>
     </row>
@@ -8074,39 +8202,39 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B68" s="110" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C68" s="126" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B69" s="113" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C69" s="28"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="112" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B70" s="113" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C70" s="28"/>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="112" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B71" s="113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C71" s="28"/>
     </row>
@@ -8117,91 +8245,91 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="123" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B73" s="166" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="167"/>
     </row>
     <row r="74" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="109" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" s="168" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C74" s="169"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B75" s="118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B76" s="161" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C76" s="162"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77" s="161" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C77" s="162"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="112" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B78" s="161" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C78" s="162"/>
     </row>
     <row r="79" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B79" s="161" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" s="162"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B80" s="161" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" s="162"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="112" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B81" s="161" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" s="162"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="112" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B82" s="161" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C82" s="162"/>
     </row>
@@ -8212,46 +8340,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="109" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B85" s="161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C85" s="162"/>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B86" s="121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C86" s="122"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B87" s="161" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C87" s="162"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88" s="161" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C88" s="162"/>
     </row>
@@ -8262,37 +8390,37 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="109" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="112" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B91" s="161" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C91" s="162"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B92" s="161" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C92" s="162"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="112" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B93" s="161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C93" s="162"/>
     </row>
@@ -8352,7 +8480,7 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="173"/>
       <c r="C2" s="173"/>
@@ -8374,49 +8502,49 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="174" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="152" t="s">
-        <v>272</v>
-      </c>
       <c r="D4" s="152" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="175"/>
       <c r="C5" s="153" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D5" s="153" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="175"/>
       <c r="C6" s="152" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D6" s="152" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="175"/>
       <c r="C7" s="153" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="153" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="175"/>
       <c r="C8" s="153" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="153" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8431,78 +8559,78 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="171" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="172"/>
       <c r="C12" s="154" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D12" s="154" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="172"/>
       <c r="C13" s="154" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D13" s="154" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="177" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C14" s="155" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" s="155" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="178"/>
       <c r="C15" s="155" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D15" s="155" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="178"/>
       <c r="C16" s="155" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D16" s="155" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="178"/>
       <c r="C17" s="155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="178"/>
       <c r="C18" s="155" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D18" s="155" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -8512,31 +8640,31 @@
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="180" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" s="156" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="180"/>
       <c r="C21" s="156" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D21" s="156" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="180"/>
       <c r="C22" s="160" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8551,40 +8679,40 @@
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="170" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D25" s="157" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="170"/>
       <c r="C26" s="157" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D26" s="157" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="170"/>
       <c r="C27" s="157" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D27" s="157" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="170"/>
       <c r="C28" s="157" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -8666,7 +8794,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="181" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="181"/>
       <c r="C1" s="181"/>
@@ -8685,7 +8813,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
       <c r="H2" s="193" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I2" s="194"/>
       <c r="J2" s="195"/>
@@ -8693,21 +8821,21 @@
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="182" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="185" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="7"/>
       <c r="H3" s="191" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="191" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J3" s="191" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8758,7 +8886,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="D8" s="188" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="7"/>
@@ -8817,10 +8945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:N61"/>
+  <dimension ref="A3:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B73" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,7 +8959,14 @@
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
@@ -8840,7 +8975,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -9022,10 +9157,17 @@
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="33" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+      <c r="P33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F34" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -9036,59 +9178,59 @@
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F35" s="6"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="6"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40" s="6"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F48" s="6"/>
       <c r="N48" s="7"/>
     </row>
@@ -9162,7 +9304,7 @@
   <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,7 +9316,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="196" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -9212,10 +9354,10 @@
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="7"/>
@@ -9235,10 +9377,10 @@
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="7"/>
@@ -9250,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="7"/>
@@ -9276,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="6"/>
@@ -9284,10 +9426,10 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="F11" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
@@ -9298,7 +9440,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="6"/>
@@ -9311,10 +9453,10 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>0</v>
@@ -9332,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
@@ -9350,7 +9492,7 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="I19" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="6"/>
@@ -9358,7 +9500,7 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="6"/>
@@ -9376,7 +9518,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="I23" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="6"/>
@@ -9384,7 +9526,7 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="6"/>
@@ -9392,7 +9534,7 @@
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="6"/>
@@ -9400,7 +9542,7 @@
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="I26" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
@@ -9418,10 +9560,10 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="6"/>
@@ -9439,7 +9581,7 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="6"/>
@@ -9455,7 +9597,7 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="J35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7"/>
     </row>
@@ -9470,7 +9612,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M38" s="7"/>
     </row>
@@ -9502,8 +9644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:H182"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A77" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9533,10 +9675,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>9</v>
@@ -9548,13 +9690,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9570,7 +9712,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="4"/>
       <c r="F4" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G4" s="198"/>
       <c r="H4" s="26"/>
@@ -9588,7 +9730,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="4"/>
@@ -9626,16 +9768,16 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="4"/>
       <c r="F11" s="138" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="32"/>
@@ -9644,24 +9786,24 @@
       <c r="A12" s="93"/>
       <c r="B12" s="25"/>
       <c r="C12" s="45" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="4"/>
       <c r="F12" s="138"/>
       <c r="G12" s="141" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F13" s="139"/>
       <c r="G13" s="100" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H13" s="27"/>
     </row>
@@ -9670,7 +9812,7 @@
       <c r="D14" s="34"/>
       <c r="F14" s="139"/>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -9678,10 +9820,10 @@
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
       <c r="F15" s="143" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -9689,10 +9831,10 @@
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
       <c r="F16" s="139" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H16" s="27"/>
     </row>
@@ -9700,10 +9842,10 @@
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
       <c r="F17" s="143" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H17" s="27"/>
     </row>
@@ -9711,10 +9853,10 @@
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
       <c r="F18" s="139" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H18" s="27"/>
     </row>
@@ -9722,10 +9864,10 @@
       <c r="C19" s="33"/>
       <c r="D19" s="34"/>
       <c r="F19" s="143" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H19" s="27"/>
     </row>
@@ -9733,34 +9875,34 @@
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
       <c r="F20" s="139" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D21" s="46"/>
       <c r="F21" s="139"/>
       <c r="G21" s="141" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="33"/>
       <c r="D22" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F22" s="143" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H22" s="27"/>
     </row>
@@ -9768,10 +9910,10 @@
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
       <c r="F23" s="139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H23" s="27"/>
     </row>
@@ -9779,10 +9921,10 @@
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
       <c r="F24" s="143" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H24" s="27"/>
     </row>
@@ -9790,10 +9932,10 @@
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
       <c r="F25" s="139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H25" s="27"/>
     </row>
@@ -9801,10 +9943,10 @@
       <c r="C26" s="33"/>
       <c r="D26" s="34"/>
       <c r="F26" s="143" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H26" s="27"/>
     </row>
@@ -9812,10 +9954,10 @@
       <c r="C27" s="33"/>
       <c r="D27" s="34"/>
       <c r="F27" s="139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H27" s="27"/>
     </row>
@@ -9823,31 +9965,31 @@
       <c r="C28" s="33"/>
       <c r="D28" s="34"/>
       <c r="F28" s="143" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G28" s="142" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D29" s="42"/>
       <c r="F29" s="139" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D30" s="34"/>
       <c r="F30" s="139"/>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H30" s="27"/>
     </row>
@@ -9856,7 +9998,7 @@
       <c r="D31" s="34"/>
       <c r="F31" s="139"/>
       <c r="G31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H31" s="27"/>
     </row>
@@ -9868,7 +10010,7 @@
       <c r="D32" s="34"/>
       <c r="F32" s="139"/>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H32" s="49"/>
     </row>
@@ -9877,7 +10019,7 @@
       <c r="D33" s="34"/>
       <c r="F33" s="139"/>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H33" s="27"/>
     </row>
@@ -9885,7 +10027,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="34"/>
       <c r="F34" s="139" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H34" s="27"/>
     </row>
@@ -9928,7 +10070,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="31"/>
@@ -9977,22 +10119,24 @@
       <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="F48" s="139"/>
-      <c r="H48" s="27"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="223"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="49"/>
+      <c r="A49" s="221"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="223"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="223"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C50" s="33"/>
@@ -10062,7 +10206,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="31"/>
@@ -10122,30 +10266,35 @@
       <c r="F68" s="139"/>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="F69" s="139"/>
-      <c r="H69" s="27"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="221"/>
+      <c r="B69" s="222"/>
+      <c r="C69" s="223"/>
+      <c r="D69" s="223"/>
+      <c r="E69" s="223"/>
+      <c r="F69" s="224"/>
+      <c r="G69" s="223"/>
+      <c r="H69" s="223"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="96"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="101"/>
-      <c r="H70" s="49"/>
+      <c r="A70" s="221"/>
+      <c r="B70" s="222"/>
+      <c r="C70" s="223"/>
+      <c r="D70" s="223"/>
+      <c r="E70" s="223"/>
+      <c r="F70" s="224"/>
+      <c r="G70" s="225"/>
+      <c r="H70" s="223"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
-      <c r="F71" s="139"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="27"/>
+      <c r="A71" s="221"/>
+      <c r="B71" s="222"/>
+      <c r="C71" s="223"/>
+      <c r="D71" s="223"/>
+      <c r="E71" s="223"/>
+      <c r="F71" s="224"/>
+      <c r="G71" s="225"/>
+      <c r="H71" s="223"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C72" s="33"/>
@@ -10208,7 +10357,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B81" s="96"/>
       <c r="C81" s="35"/>
@@ -10291,7 +10440,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B93" s="96"/>
       <c r="C93" s="35"/>
@@ -10341,7 +10490,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B100" s="96"/>
       <c r="C100" s="35"/>
@@ -10384,7 +10533,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B106" s="96"/>
       <c r="C106" s="35"/>
@@ -10454,7 +10603,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B116" s="25"/>
       <c r="C116" s="31"/>
@@ -10496,7 +10645,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B122" s="96"/>
       <c r="C122" s="35"/>
@@ -10586,7 +10735,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B135" s="96"/>
       <c r="C135" s="35"/>
@@ -10676,7 +10825,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="95" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B148" s="96"/>
       <c r="C148" s="35"/>
@@ -10773,7 +10922,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B162" s="96"/>
       <c r="C162" s="35"/>
@@ -10837,7 +10986,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B171" s="96"/>
       <c r="C171" s="35"/>
@@ -10966,7 +11115,7 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="215" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" s="215"/>
       <c r="D1" s="215"/>
@@ -11624,7 +11773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -11649,7 +11798,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="220" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
@@ -11683,7 +11832,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="81"/>
       <c r="D4" s="82"/>
@@ -11712,7 +11861,7 @@
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="62"/>

--- a/Medotologia.xlsx
+++ b/Medotologia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDa\Desktop\Projecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D03A0-CB36-4DA7-B019-45DABC22B586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F2F51-4FDC-4FC2-A268-AD74453133D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="295">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1031,6 +1031,15 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>Añadir una direccion</t>
+  </si>
+  <si>
+    <t>Para que el repartidor sepa donde enviarlo</t>
+  </si>
+  <si>
+    <t>Para saber cuanto producto se descuenta del inventario</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2058,37 +2067,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,6 +2187,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,15 +2226,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,21 +2238,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,11 +2250,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7627,11 +7633,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123" t="s">
@@ -8247,19 +8253,19 @@
       <c r="A73" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="166" t="s">
+      <c r="B73" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="167"/>
+      <c r="C73" s="164"/>
     </row>
     <row r="74" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="168" t="s">
+      <c r="B74" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="169"/>
+      <c r="C74" s="166"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="111" t="s">
@@ -8274,64 +8280,64 @@
       <c r="A76" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="162"/>
+      <c r="C76" s="168"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="161" t="s">
+      <c r="B77" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="162"/>
+      <c r="C77" s="168"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="161" t="s">
+      <c r="B78" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="162"/>
+      <c r="C78" s="168"/>
     </row>
     <row r="79" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="161" t="s">
+      <c r="B79" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="162"/>
+      <c r="C79" s="168"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="161" t="s">
+      <c r="B80" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="162"/>
+      <c r="C80" s="168"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="161" t="s">
+      <c r="B81" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="162"/>
+      <c r="C81" s="168"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="161" t="s">
+      <c r="B82" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="162"/>
+      <c r="C82" s="168"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="112"/>
@@ -8351,10 +8357,10 @@
       <c r="A85" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="161" t="s">
+      <c r="B85" s="167" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="162"/>
+      <c r="C85" s="168"/>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="112" t="s">
@@ -8369,19 +8375,19 @@
       <c r="A87" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="161" t="s">
+      <c r="B87" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="162"/>
+      <c r="C87" s="168"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="161" t="s">
+      <c r="B88" s="167" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="162"/>
+      <c r="C88" s="168"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="112"/>
@@ -8401,28 +8407,28 @@
       <c r="A91" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="161" t="s">
+      <c r="B91" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="162"/>
+      <c r="C91" s="168"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="161" t="s">
+      <c r="B92" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="162"/>
+      <c r="C92" s="168"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="161" t="s">
+      <c r="B93" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="162"/>
+      <c r="C93" s="168"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="116"/>
@@ -8431,22 +8437,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8458,8 +8464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8471,20 +8477,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
@@ -8501,7 +8507,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="173" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="152" t="s">
@@ -8512,7 +8518,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="175"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="153" t="s">
         <v>266</v>
       </c>
@@ -8521,7 +8527,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="175"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="152" t="s">
         <v>262</v>
       </c>
@@ -8530,7 +8536,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="175"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="153" t="s">
         <v>278</v>
       </c>
@@ -8539,7 +8545,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="175"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="153" t="s">
         <v>273</v>
       </c>
@@ -8548,17 +8554,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="175"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="153"/>
       <c r="D9" s="153"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="176"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="153"/>
       <c r="D10" s="153"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="170" t="s">
         <v>269</v>
       </c>
       <c r="C11" s="154" t="s">
@@ -8569,7 +8575,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="172"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="154" t="s">
         <v>280</v>
       </c>
@@ -8578,7 +8584,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="172"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="154" t="s">
         <v>279</v>
       </c>
@@ -8587,7 +8593,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="176" t="s">
         <v>282</v>
       </c>
       <c r="C14" s="155" t="s">
@@ -8598,7 +8604,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="178"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="155" t="s">
         <v>249</v>
       </c>
@@ -8607,7 +8613,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="178"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="155" t="s">
         <v>287</v>
       </c>
@@ -8616,7 +8622,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="178"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="155" t="s">
         <v>289</v>
       </c>
@@ -8625,7 +8631,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="178"/>
+      <c r="B18" s="177"/>
       <c r="C18" s="155" t="s">
         <v>245</v>
       </c>
@@ -8634,12 +8640,12 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="179"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="158"/>
       <c r="D19" s="158"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="179" t="s">
         <v>283</v>
       </c>
       <c r="C20" s="156" t="s">
@@ -8650,7 +8656,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="180"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="156" t="s">
         <v>285</v>
       </c>
@@ -8659,26 +8665,34 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="180"/>
-      <c r="C22" s="160" t="s">
+      <c r="B22" s="179"/>
+      <c r="C22" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="160" t="s">
+      <c r="D22" s="159" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="180"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="220" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="220" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="180"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="220" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="220" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="169" t="s">
         <v>270</v>
       </c>
       <c r="C25" s="157" t="s">
@@ -8689,7 +8703,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="170"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="157" t="s">
         <v>254</v>
       </c>
@@ -8698,7 +8712,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="170"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="157" t="s">
         <v>256</v>
       </c>
@@ -8707,7 +8721,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="157" t="s">
         <v>258</v>
       </c>
@@ -8716,7 +8730,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="170"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="157"/>
       <c r="D29" s="157"/>
     </row>
@@ -8793,13 +8807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -8812,48 +8826,48 @@
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
-      <c r="H2" s="193" t="s">
+      <c r="H2" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="195"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="184" t="s">
         <v>196</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="191" t="s">
+      <c r="H3" s="190" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="191" t="s">
+      <c r="I3" s="190" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="191" t="s">
+      <c r="J3" s="190" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="183"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="186"/>
+      <c r="D4" s="185"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="183"/>
-      <c r="D5" s="186"/>
+      <c r="B5" s="182"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="22" t="s">
         <v>1</v>
       </c>
@@ -8866,8 +8880,8 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="184"/>
-      <c r="D6" s="187"/>
+      <c r="B6" s="183"/>
+      <c r="D6" s="186"/>
       <c r="F6" s="7"/>
       <c r="H6" s="131"/>
       <c r="I6" s="131"/>
@@ -8885,7 +8899,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="187" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="22"/>
@@ -8896,7 +8910,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="D9" s="189"/>
+      <c r="D9" s="188"/>
       <c r="F9" s="7"/>
       <c r="H9" s="132"/>
       <c r="I9" s="132"/>
@@ -8904,7 +8918,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="D10" s="189"/>
+      <c r="D10" s="188"/>
       <c r="E10" s="22"/>
       <c r="F10" s="7"/>
       <c r="H10" s="132"/>
@@ -8913,7 +8927,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="D11" s="190"/>
+      <c r="D11" s="189"/>
       <c r="F11" s="7"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -8947,7 +8961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
@@ -9315,18 +9329,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="195" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9661,13 +9675,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
       <c r="F2" s="52"/>
       <c r="G2" t="s">
         <v>0</v>
@@ -9714,14 +9728,14 @@
       <c r="F4" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="198"/>
+      <c r="G4" s="197"/>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40"/>
       <c r="D5" s="34"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="199"/>
+      <c r="G5" s="198"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10119,24 +10133,11 @@
       <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="221"/>
-      <c r="B48" s="222"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="223"/>
-      <c r="F48" s="224"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
+      <c r="F48" s="104"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="221"/>
-      <c r="B49" s="222"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="223"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="225"/>
-      <c r="H49" s="223"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="57"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C50" s="33"/>
@@ -10242,114 +10243,95 @@
       <c r="F64" s="139"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="33"/>
       <c r="D65" s="34"/>
       <c r="F65" s="139"/>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="41"/>
       <c r="D66" s="42"/>
       <c r="F66" s="139"/>
       <c r="H66" s="27"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="33"/>
       <c r="D67" s="34"/>
       <c r="F67" s="139"/>
       <c r="H67" s="27"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="41"/>
       <c r="D68" s="42"/>
       <c r="F68" s="139"/>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="221"/>
-      <c r="B69" s="222"/>
-      <c r="C69" s="223"/>
-      <c r="D69" s="223"/>
-      <c r="E69" s="223"/>
-      <c r="F69" s="224"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="223"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="221"/>
-      <c r="B70" s="222"/>
-      <c r="C70" s="223"/>
-      <c r="D70" s="223"/>
-      <c r="E70" s="223"/>
-      <c r="F70" s="224"/>
-      <c r="G70" s="225"/>
-      <c r="H70" s="223"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="221"/>
-      <c r="B71" s="222"/>
-      <c r="C71" s="223"/>
-      <c r="D71" s="223"/>
-      <c r="E71" s="223"/>
-      <c r="F71" s="224"/>
-      <c r="G71" s="225"/>
-      <c r="H71" s="223"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="104"/>
+      <c r="G70" s="57"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="104"/>
+      <c r="G71" s="57"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="33"/>
       <c r="D72" s="34"/>
       <c r="F72" s="139"/>
       <c r="G72" s="57"/>
       <c r="H72" s="27"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="33"/>
       <c r="D73" s="34"/>
       <c r="F73" s="139"/>
       <c r="G73" s="99"/>
       <c r="H73" s="27"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="33"/>
       <c r="D74" s="34"/>
       <c r="F74" s="139"/>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="41"/>
       <c r="D75" s="42"/>
       <c r="F75" s="139"/>
       <c r="G75" s="24"/>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="33"/>
       <c r="D76" s="34"/>
       <c r="F76" s="139"/>
       <c r="G76" s="100"/>
       <c r="H76" s="27"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="33"/>
       <c r="D77" s="34"/>
       <c r="F77" s="139"/>
       <c r="G77" s="100"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="33"/>
       <c r="D78" s="34"/>
       <c r="F78" s="139"/>
       <c r="H78" s="27"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="41"/>
       <c r="D79" s="42"/>
       <c r="F79" s="139"/>
       <c r="H79" s="27"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="33"/>
       <c r="D80" s="34"/>
       <c r="F80" s="139"/>
@@ -11114,48 +11096,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="199" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="209"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="207"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="203"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="I5" s="75"/>
       <c r="J5" s="76"/>
       <c r="K5" s="77"/>
@@ -11212,22 +11194,22 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="213"/>
       <c r="I11" s="79"/>
       <c r="J11" s="73"/>
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
       <c r="I12" s="80"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
-      <c r="M12" s="205"/>
-      <c r="N12" s="206"/>
-      <c r="O12" s="207"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="203"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
@@ -11262,9 +11244,9 @@
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="78"/>
       <c r="F16" s="71"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="203"/>
       <c r="M16" s="78"/>
       <c r="N16" s="70"/>
       <c r="O16" s="71"/>
@@ -11333,14 +11315,14 @@
       <c r="I23" s="80"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="206"/>
-      <c r="O23" s="207"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="202"/>
+      <c r="O23" s="203"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="50"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213"/>
       <c r="I24" s="83"/>
       <c r="J24" s="84"/>
       <c r="K24" s="85"/>
@@ -11350,8 +11332,8 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="56"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
       <c r="I25" s="86"/>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -11371,9 +11353,9 @@
       <c r="B27" s="50"/>
       <c r="E27" s="78"/>
       <c r="F27" s="71"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="207"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="203"/>
       <c r="M27" s="78"/>
       <c r="N27" s="70"/>
       <c r="O27" s="71"/>
@@ -11420,8 +11402,8 @@
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="50"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="209"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="213"/>
       <c r="I32" s="2"/>
       <c r="M32" s="86"/>
       <c r="N32" s="87"/>
@@ -11429,17 +11411,17 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="55"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="50"/>
       <c r="E34" s="75"/>
       <c r="F34" s="77"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="207"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="203"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="50"/>
@@ -11448,9 +11430,9 @@
       <c r="I35" s="97"/>
       <c r="J35" s="76"/>
       <c r="K35" s="77"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="207"/>
+      <c r="M35" s="201"/>
+      <c r="N35" s="202"/>
+      <c r="O35" s="203"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="50"/>
@@ -11515,9 +11497,9 @@
       <c r="I42" s="83"/>
       <c r="J42" s="84"/>
       <c r="K42" s="85"/>
-      <c r="M42" s="205"/>
-      <c r="N42" s="206"/>
-      <c r="O42" s="207"/>
+      <c r="M42" s="201"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="203"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="55"/>
@@ -11546,18 +11528,18 @@
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="47"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="214"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="205"/>
+      <c r="K46" s="206"/>
       <c r="M46" s="89"/>
       <c r="N46" s="90"/>
       <c r="O46" s="91"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="47"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="202"/>
+      <c r="I47" s="207"/>
+      <c r="J47" s="208"/>
+      <c r="K47" s="209"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
@@ -11572,15 +11554,15 @@
       <c r="B50" s="47"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="212"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="214"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="205"/>
+      <c r="K51" s="206"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="84"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="202"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="208"/>
+      <c r="K52" s="209"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="84"/>
@@ -11740,16 +11722,6 @@
     <sortCondition ref="B61:B98"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M12:O12"/>
     <mergeCell ref="I52:K52"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="M4:O4"/>
@@ -11763,6 +11735,16 @@
     <mergeCell ref="M42:O42"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11797,38 +11779,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="219"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="219"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="218"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="218"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -11882,9 +11864,9 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="217"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="218"/>
       <c r="F8" s="67"/>
       <c r="G8" s="61"/>
       <c r="H8" s="62"/>
@@ -11911,17 +11893,17 @@
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="217"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="219"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="219"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="218"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
       <c r="J13" s="80"/>
       <c r="K13" s="81"/>
       <c r="L13" s="82"/>
@@ -11942,9 +11924,9 @@
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="D15" s="7"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="218"/>
       <c r="J15" s="54"/>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
